--- a/User Strories.xlsx
+++ b/User Strories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faiqa\Desktop\FT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDCC338-9E4D-44BB-987B-6144A3CC99D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CBF9F2-72C9-42E1-BF64-4C99CA84C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9650" yWindow="0" windowWidth="9640" windowHeight="10170" xr2:uid="{4E52419C-2CC4-4F21-A3FC-611F6F074FAC}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{4E52419C-2CC4-4F21-A3FC-611F6F074FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Story</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>register an account</t>
-  </si>
-  <si>
     <t>log in to my account</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>category based summary?</t>
   </si>
   <si>
-    <t>saving and goals?</t>
-  </si>
-  <si>
     <t>create categories</t>
   </si>
   <si>
@@ -87,6 +81,15 @@
   </si>
   <si>
     <t>receive a notif on desktop app</t>
+  </si>
+  <si>
+    <t>register a user</t>
+  </si>
+  <si>
+    <t>create savings</t>
+  </si>
+  <si>
+    <t>put goals for savings?</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52EB3E9-7CC6-4229-98F2-8C61CF456909}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,77 +502,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
